--- a/StructureDefinition-ext-R5-Procedure.reported.xlsx
+++ b/StructureDefinition-ext-R5-Procedure.reported.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Procedure.reported[x]` 0..1 `boolean, Reference(http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/Organization)`
 Following are the generation technical comments:
-Element `Procedure.reported[x]` is mapped to FHIR R4 structure `Procedure`, but has no target element specified.</t>
+Element `Procedure.reported[x]` is will have a context of Procedure based on following the parent source element upwards and mapping to `Procedure`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Procedure</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-ext-R5-Procedure.reported.xlsx
+++ b/StructureDefinition-ext-R5-Procedure.reported.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Procedure.reported[x]` 0..1 `boolean, Reference(http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/Organization)`
 Following are the generation technical comments:
-Element `Procedure.reported[x]` is will have a context of Procedure based on following the parent source element upwards and mapping to `Procedure`.</t>
+Element `Procedure.reported[x]` has a context of Procedure based on following the parent source element upwards and mapping to `Procedure`.</t>
   </si>
   <si>
     <t>Copyright</t>

--- a/StructureDefinition-ext-R5-Procedure.reported.xlsx
+++ b/StructureDefinition-ext-R5-Procedure.reported.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -359,7 +359,7 @@
   </si>
   <si>
     <t>boolean
-Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)</t>
+Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}

--- a/StructureDefinition-ext-R5-Procedure.reported.xlsx
+++ b/StructureDefinition-ext-R5-Procedure.reported.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -359,7 +359,7 @@
   </si>
   <si>
     <t>boolean
-Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)</t>
+Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
